--- a/Andrew-annotations/NVDA_Q2_2017.xlsx
+++ b/Andrew-annotations/NVDA_Q2_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6364D0-E014-4EF0-8AE2-20D611737777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753FA7CE-F5DA-4D08-9F76-A2841E41D6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="77" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,22 +677,22 @@
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
         <v>2</v>
       </c>
     </row>
@@ -709,22 +709,22 @@
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
         <v>2</v>
       </c>
     </row>
@@ -741,22 +741,22 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
         <v>2</v>
       </c>
     </row>
@@ -773,22 +773,22 @@
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
         <v>2</v>
       </c>
     </row>
@@ -805,22 +805,22 @@
       <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
         <v>2</v>
       </c>
     </row>
@@ -837,22 +837,22 @@
       <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
         <v>2</v>
       </c>
     </row>
@@ -869,22 +869,22 @@
       <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>2</v>
       </c>
     </row>
@@ -901,22 +901,22 @@
       <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>2</v>
       </c>
     </row>
@@ -933,22 +933,22 @@
       <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>2</v>
       </c>
     </row>
@@ -965,22 +965,22 @@
       <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
         <v>2</v>
       </c>
     </row>
@@ -997,22 +997,22 @@
       <c r="D12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       <c r="D14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1093,22 +1093,22 @@
       <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       <c r="D16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1157,22 +1157,22 @@
       <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1189,22 +1189,22 @@
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1221,22 +1221,22 @@
       <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1253,22 +1253,22 @@
       <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1285,22 +1285,22 @@
       <c r="D21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1317,22 +1317,22 @@
       <c r="D22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       <c r="D23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1381,22 +1381,22 @@
       <c r="D24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24">
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>2</v>
       </c>
     </row>
